--- a/public/worklog.xlsx
+++ b/public/worklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-fe\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A852AB14-B199-4611-9A1F-1C57F8F309D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691BC388-EE9E-4363-8557-BC739FAAC224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="675" windowWidth="18930" windowHeight="14355" xr2:uid="{3A9F3CBA-7411-4EA5-8EFD-E97288CF4CB8}"/>
+    <workbookView xWindow="2070" yWindow="120" windowWidth="26070" windowHeight="15300" xr2:uid="{3A9F3CBA-7411-4EA5-8EFD-E97288CF4CB8}"/>
   </bookViews>
   <sheets>
     <sheet name="코팅 작업 일지" sheetId="1" r:id="rId1"/>
@@ -550,144 +550,141 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1029,1112 +1026,1111 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="12" width="9" style="45"/>
+    <col min="10" max="12" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="3">
+      <c r="F7" s="34"/>
+      <c r="G7" s="40">
         <v>2423154</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="34"/>
+      <c r="K7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="34"/>
+      <c r="K9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9" t="s">
+      <c r="H12" s="34"/>
+      <c r="I12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="34"/>
+      <c r="I16" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="8" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15" t="s">
+      <c r="H21" s="31"/>
+      <c r="I21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="9" t="s">
+      <c r="J21" s="27"/>
+      <c r="K21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9" t="s">
+      <c r="F25" s="34"/>
+      <c r="G25" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="37"/>
+      <c r="I25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="s">
+      <c r="J25" s="34"/>
+      <c r="K25" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15" t="s">
+      <c r="H29" s="31"/>
+      <c r="I29" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="9" t="s">
+      <c r="J29" s="27"/>
+      <c r="K29" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="9"/>
+      <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="34"/>
+      <c r="G33" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="8" t="s">
+      <c r="H33" s="37"/>
+      <c r="I33" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="34"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="21"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="27"/>
+      <c r="C38" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="13" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="13" t="s">
+      <c r="F38" s="31"/>
+      <c r="G38" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="13" t="s">
+      <c r="H38" s="31"/>
+      <c r="I38" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="13" t="s">
+      <c r="J38" s="31"/>
+      <c r="K38" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="L38" s="14"/>
+      <c r="L38" s="31"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="34" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="34" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="34" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="21" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="21" t="s">
+      <c r="F44" s="17"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="31"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="21" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="21" t="s">
+      <c r="F46" s="17"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="27"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="44"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="39" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="14"/>
+      <c r="E49" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="23">
+      <c r="F49" s="13"/>
+      <c r="G49" s="14">
         <v>1251231</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="10" t="s">
+      <c r="H49" s="14"/>
+      <c r="I49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="39" t="s">
+      <c r="J49" s="13"/>
+      <c r="K49" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L49" s="23"/>
+      <c r="L49" s="14"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="7"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="44"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="10" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="10" t="s">
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="7"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="44"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="33"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="43"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="43"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="43"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="43"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="43"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="38"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="A55:L61"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="G49:H50"/>
-    <mergeCell ref="I49:J50"/>
-    <mergeCell ref="K49:L50"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="K46:L47"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="I44:J45"/>
-    <mergeCell ref="K44:L45"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:H39"/>
-    <mergeCell ref="I38:J39"/>
-    <mergeCell ref="K38:L39"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="A31:B36"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J32"/>
-    <mergeCell ref="K31:L32"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="I33:J34"/>
+  <mergeCells count="128">
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A54:L54"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="A20:L20"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:D30"/>
     <mergeCell ref="E29:F30"/>
@@ -2157,52 +2153,60 @@
     <mergeCell ref="E25:F26"/>
     <mergeCell ref="G25:H26"/>
     <mergeCell ref="I25:J26"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A31:B36"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="K31:L32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="G38:H39"/>
+    <mergeCell ref="I38:J39"/>
+    <mergeCell ref="K38:L39"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="K46:L47"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="I44:J45"/>
+    <mergeCell ref="K44:L45"/>
+    <mergeCell ref="A55:L61"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="G49:H50"/>
+    <mergeCell ref="I49:J50"/>
+    <mergeCell ref="K49:L50"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
